--- a/temp/pages/StructureDefinition-CEQextension.xlsx
+++ b/temp/pages/StructureDefinition-CEQextension.xlsx
@@ -173,7 +173,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>39</v>

--- a/temp/pages/StructureDefinition-CEQextension.xlsx
+++ b/temp/pages/StructureDefinition-CEQextension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$36</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="91">
   <si>
     <t>Path</t>
   </si>
@@ -282,6 +282,16 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|RelatedPerson|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
+</t>
+  </si>
+  <si>
+    <t>subserv</t>
+  </si>
+  <si>
+    <t>Subscription Service acing as intermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -438,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AJ36"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -457,7 +467,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="38.703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3417,23 +3427,25 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>86</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>44</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -3442,24 +3454,22 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>66</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>37</v>
@@ -3501,27 +3511,27 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>68</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3532,7 +3542,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -3544,13 +3554,13 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -3601,26 +3611,530 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" hidden="true">
+      <c r="A32" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI34" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AJ34" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" hidden="true">
+      <c r="A36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>68</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ31">
+  <autoFilter ref="A1:AJ36">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3630,7 +4144,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI35">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-CEQextension.xlsx
+++ b/temp/pages/StructureDefinition-CEQextension.xlsx
@@ -291,7 +291,7 @@
     <t>Subscription Service acing as intermediary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization)
 </t>
   </si>
   <si>
